--- a/output/1Y_P19_1VAL-D.xlsx
+++ b/output/1Y_P19_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.3141</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>751.0834</v>
       </c>
-      <c r="G2" s="1">
-        <v>751.0834</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3141</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>13.7208</v>
       </c>
+      <c r="E3" s="1">
+        <v>751.0834</v>
+      </c>
       <c r="F3" s="1">
         <v>728.8205</v>
       </c>
-      <c r="G3" s="1">
-        <v>1479.9039</v>
-      </c>
       <c r="H3" s="1">
-        <v>20200.0965</v>
+        <v>10251.9885</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.5144</v>
+        <v>10251.9885</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.3141</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20200.0965</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0126</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>14.2021</v>
       </c>
+      <c r="E4" s="1">
+        <v>1479.9039</v>
+      </c>
       <c r="F4" s="1">
         <v>704.1212</v>
       </c>
-      <c r="G4" s="1">
-        <v>2184.0251</v>
-      </c>
       <c r="H4" s="1">
-        <v>30856.7807</v>
+        <v>20908.6745</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7361</v>
+        <v>20908.6745</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.5144</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30856.7807</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0217</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E5" s="1">
+        <v>2184.0251</v>
+      </c>
       <c r="F5" s="1">
         <v>714.9189</v>
       </c>
-      <c r="G5" s="1">
-        <v>2898.9441</v>
-      </c>
       <c r="H5" s="1">
-        <v>40339.0966</v>
+        <v>30390.9282</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7981</v>
+        <v>30390.9282</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.7361</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40339.0966</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0127</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E6" s="1">
+        <v>2898.9441</v>
+      </c>
       <c r="F6" s="1">
         <v>776.289</v>
       </c>
-      <c r="G6" s="1">
-        <v>3675.2331</v>
-      </c>
       <c r="H6" s="1">
-        <v>47098.1121</v>
+        <v>37149.9682</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6046</v>
+        <v>37149.9682</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7981</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47098.1121</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0644</v>
+        <v>-0.08019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E7" s="1">
+        <v>3675.2331</v>
+      </c>
       <c r="F7" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G7" s="1">
-        <v>4453.3887</v>
-      </c>
       <c r="H7" s="1">
-        <v>56933.0119</v>
+        <v>46984.9149</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4729</v>
+        <v>46984.9149</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6046</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56933.0119</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0029</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E8" s="1">
+        <v>4453.3887</v>
+      </c>
       <c r="F8" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G8" s="1">
-        <v>5174.8166</v>
-      </c>
       <c r="H8" s="1">
-        <v>71358.1329</v>
+        <v>61410.0036</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.527</v>
+        <v>61410.0036</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.4729</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71358.1329</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E9" s="1">
+        <v>5174.8166</v>
+      </c>
       <c r="F9" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G9" s="1">
-        <v>5872.9992</v>
-      </c>
       <c r="H9" s="1">
-        <v>83682.0162</v>
+        <v>73733.8912</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.6217</v>
+        <v>73733.8912</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.527</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83682.0162</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0286</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E10" s="1">
+        <v>5872.9992</v>
+      </c>
       <c r="F10" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G10" s="1">
-        <v>6575.5375</v>
-      </c>
       <c r="H10" s="1">
-        <v>93110.9255</v>
+        <v>83162.8431</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6871</v>
+        <v>83162.8431</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.6217</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93110.9255</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E11" s="1">
+        <v>6575.5375</v>
+      </c>
       <c r="F11" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G11" s="1">
-        <v>7303.043</v>
-      </c>
       <c r="H11" s="1">
-        <v>99864.0007</v>
+        <v>89915.8719</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6929</v>
+        <v>89915.8719</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6871</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99864.0007</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E12" s="1">
+        <v>7303.043</v>
+      </c>
       <c r="F12" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G12" s="1">
-        <v>7991.1558</v>
-      </c>
       <c r="H12" s="1">
-        <v>115528.9391</v>
+        <v>105580.8228</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7652</v>
+        <v>105580.8228</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13.6929</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.75</v>
       </c>
-      <c r="L12" s="1">
-        <v>4929.554</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5070.446</v>
+        <v>4438.4878</v>
       </c>
       <c r="O12" s="1">
-        <v>4929.554</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120458.4931</v>
+        <v>-5561.5122</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0964</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E13" s="1">
+        <v>7991.1558</v>
+      </c>
       <c r="F13" s="1">
-        <v>1062.3144</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9053.4702</v>
+        <v>1027.3725</v>
       </c>
       <c r="H13" s="1">
-        <v>126575.662</v>
+        <v>111723.5507</v>
       </c>
       <c r="I13" s="1">
-        <v>124929.554</v>
+        <v>4438.4878</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7991</v>
+        <v>116162.0385</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114438.4878</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.3206</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-14929.554</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126575.662</v>
+        <v>-14438.4878</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0298</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E14" s="1">
+        <v>9018.5283</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9053.4702</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-7991.1558</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118313.1716</v>
       </c>
       <c r="I14" s="1">
-        <v>124929.554</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7991</v>
+        <v>118313.1716</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114438.4878</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6893</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118771.5706</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118771.5706</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118771.5706</v>
+        <v>104835.1743</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1304</v>
+        <v>-0.0622</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.3141</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>751.0834</v>
       </c>
       <c r="G2" s="1">
-        <v>751.0834</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3141</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>13.7208</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>751.0834</v>
       </c>
       <c r="F3" s="1">
         <v>714.1609999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1465.2444</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10251.9885</v>
       </c>
       <c r="I3" s="1">
-        <v>19798.8598</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.5123</v>
+        <v>10251.9885</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9798.8598</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.0463</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9798.8598</v>
       </c>
-      <c r="O3" s="1">
-        <v>201.1402</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20201.1402</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>14.2021</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1465.2444</v>
       </c>
       <c r="F4" s="1">
         <v>658.1383</v>
       </c>
       <c r="G4" s="1">
-        <v>2123.3827</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20701.559</v>
       </c>
       <c r="I4" s="1">
-        <v>29145.8055</v>
+        <v>201.1402</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7261</v>
+        <v>20902.6993</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19145.8055</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.0666</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9346.9458</v>
       </c>
-      <c r="O4" s="1">
-        <v>854.1944999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30854.1945</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0216</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.9876</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2123.3827</v>
       </c>
       <c r="F5" s="1">
         <v>751.1924</v>
       </c>
       <c r="G5" s="1">
-        <v>2874.5751</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29547.0825</v>
       </c>
       <c r="I5" s="1">
-        <v>39653.1845</v>
+        <v>854.1944999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7945</v>
+        <v>30401.2769</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29653.1845</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9651</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10507.379</v>
       </c>
-      <c r="O5" s="1">
-        <v>346.8155</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40346.8155</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0124</v>
+        <v>-0.0162</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>12.8818</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2874.5751</v>
       </c>
       <c r="F6" s="1">
         <v>803.2119</v>
       </c>
       <c r="G6" s="1">
-        <v>3677.787</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>47130.8409</v>
+        <v>36837.6799</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>346.8155</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5951</v>
+        <v>37184.4954</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.9151</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10346.8155</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47130.8409</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0639</v>
+        <v>-0.0796</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>12.8509</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3677.787</v>
       </c>
       <c r="F7" s="1">
         <v>778.1556</v>
       </c>
       <c r="G7" s="1">
-        <v>4455.9427</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>56965.662</v>
+        <v>47017.565</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4652</v>
+        <v>47017.565</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5951</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56965.662</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0029</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.8614</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4455.9427</v>
       </c>
       <c r="F8" s="1">
         <v>620.3835</v>
       </c>
       <c r="G8" s="1">
-        <v>5076.3262</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>61445.2212</v>
       </c>
       <c r="I8" s="1">
-        <v>68599.3844</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.5136</v>
+        <v>61445.2212</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58599.3844</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.1508</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-8599.384400000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>1400.6156</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71400.6156</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06619999999999999</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.3229</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5076.3262</v>
       </c>
       <c r="F9" s="1">
         <v>538.2605</v>
       </c>
       <c r="G9" s="1">
-        <v>5614.5867</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>72330.5414</v>
       </c>
       <c r="I9" s="1">
-        <v>76308.8358</v>
+        <v>1400.6156</v>
       </c>
       <c r="J9" s="1">
-        <v>13.5912</v>
+        <v>73731.15700000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66308.8358</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.0624</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-7709.4514</v>
       </c>
-      <c r="O9" s="1">
-        <v>3691.1642</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83691.1642</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0281</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.2341</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5614.5867</v>
       </c>
       <c r="F10" s="1">
         <v>741.2557</v>
       </c>
       <c r="G10" s="1">
-        <v>6355.8424</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>79503.67049999999</v>
       </c>
       <c r="I10" s="1">
-        <v>86859.94409999999</v>
+        <v>3691.1642</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6662</v>
+        <v>83194.83470000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>76859.94409999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.6893</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10551.1083</v>
       </c>
-      <c r="O10" s="1">
-        <v>3140.0559</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93140.05590000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0059</v>
+        <v>-0.0064</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.7456</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6355.8424</v>
       </c>
       <c r="F11" s="1">
         <v>957.1462</v>
       </c>
       <c r="G11" s="1">
-        <v>7312.9886</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>86911.69620000001</v>
       </c>
       <c r="I11" s="1">
-        <v>100016.4924</v>
+        <v>3140.0559</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6766</v>
+        <v>90051.7521</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90016.4924</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.1628</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-13156.5484</v>
       </c>
-      <c r="O11" s="1">
-        <v>-16.4924</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99983.5076</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0306</v>
+        <v>-0.0337</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.5325</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7312.9886</v>
       </c>
       <c r="F12" s="1">
         <v>295.7296</v>
       </c>
       <c r="G12" s="1">
-        <v>7608.7182</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>105724.6075</v>
       </c>
       <c r="I12" s="1">
-        <v>104314.183</v>
+        <v>-16.4924</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7098</v>
+        <v>105708.1151</v>
       </c>
       <c r="K12" s="1">
+        <v>94314.183</v>
+      </c>
+      <c r="L12" s="1">
+        <v>12.8968</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.75</v>
       </c>
-      <c r="L12" s="1">
-        <v>4936.2673</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>638.5768</v>
+        <v>4290.1936</v>
       </c>
       <c r="O12" s="1">
-        <v>10622.0844</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120622.0844</v>
+        <v>-7.4969</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09669999999999999</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7608.7182</v>
       </c>
       <c r="F13" s="1">
         <v>974.4202</v>
       </c>
       <c r="G13" s="1">
-        <v>8583.1384</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>106376.7284</v>
       </c>
       <c r="I13" s="1">
-        <v>118008.4898</v>
+        <v>9976.010700000001</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7489</v>
+        <v>116352.7391</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108008.4898</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.1954</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-13694.3068</v>
       </c>
-      <c r="O13" s="1">
-        <v>6927.7775</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126927.7775</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0283</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>13.1873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8583.1384</v>
       </c>
       <c r="F14" s="1">
         <v>-8583.1384</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>112601.3347</v>
       </c>
       <c r="I14" s="1">
-        <v>118008.4898</v>
+        <v>6281.7038</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7489</v>
+        <v>118883.0385</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108008.4898</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5838</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>112601.3347</v>
       </c>
-      <c r="O14" s="1">
-        <v>119529.1122</v>
-      </c>
-      <c r="P14" s="1">
-        <v>119529.1122</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1271</v>
+        <v>-0.0591</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.3141</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>751.0834</v>
       </c>
       <c r="G2" s="1">
-        <v>751.0834</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3141</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>13.7208</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>751.0834</v>
       </c>
       <c r="F3" s="1">
         <v>717.8241</v>
       </c>
       <c r="G3" s="1">
-        <v>1468.9075</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10251.9885</v>
       </c>
       <c r="I3" s="1">
-        <v>19849.1206</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.5128</v>
+        <v>10251.9885</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9849.1206</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1132</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9849.1206</v>
       </c>
-      <c r="O3" s="1">
-        <v>150.8794</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20200.8794</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>14.2021</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1468.9075</v>
       </c>
       <c r="F4" s="1">
         <v>665.1098</v>
       </c>
       <c r="G4" s="1">
-        <v>2134.0173</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20753.3129</v>
       </c>
       <c r="I4" s="1">
-        <v>29295.0763</v>
+        <v>150.8794</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7277</v>
+        <v>20904.1923</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19295.0763</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.1357</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9445.9557</v>
       </c>
-      <c r="O4" s="1">
-        <v>704.9237000000001</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30855.1737</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0217</v>
+        <v>0.0322</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.9876</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2134.0173</v>
       </c>
       <c r="F5" s="1">
         <v>762.1891000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>2896.2064</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29695.0641</v>
       </c>
       <c r="I5" s="1">
-        <v>39956.2721</v>
+        <v>704.9237000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7961</v>
+        <v>30399.9879</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29956.2721</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>14.0375</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10661.1958</v>
       </c>
-      <c r="O5" s="1">
-        <v>43.7279</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40344.7291</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0125</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>12.8818</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2896.2064</v>
       </c>
       <c r="F6" s="1">
         <v>779.6836</v>
       </c>
       <c r="G6" s="1">
-        <v>3675.8899</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>47106.5297</v>
+        <v>37114.8846</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>43.7279</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6021</v>
+        <v>37158.6125</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.8112</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10043.7279</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47106.5297</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0643</v>
+        <v>-0.08019999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>12.8509</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3675.8899</v>
       </c>
       <c r="F7" s="1">
         <v>778.1556</v>
       </c>
       <c r="G7" s="1">
-        <v>4454.0456</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>56941.4093</v>
+        <v>46993.3122</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4709</v>
+        <v>46993.3122</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6021</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56941.4093</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0029</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.8614</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4454.0456</v>
       </c>
       <c r="F8" s="1">
         <v>699.0632000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>5153.1088</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61419.0613</v>
       </c>
       <c r="I8" s="1">
-        <v>69689.9953</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.5239</v>
+        <v>61419.0613</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59689.9953</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.4013</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9689.9953</v>
       </c>
-      <c r="O8" s="1">
-        <v>310.0047</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71368.79859999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.3229</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5153.1088</v>
       </c>
       <c r="F9" s="1">
         <v>560.7219</v>
       </c>
       <c r="G9" s="1">
-        <v>5713.8307</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>73424.5861</v>
       </c>
       <c r="I9" s="1">
-        <v>77721.1586</v>
+        <v>310.0047</v>
       </c>
       <c r="J9" s="1">
-        <v>13.6023</v>
+        <v>73734.5909</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67721.1586</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.1418</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-8031.1634</v>
       </c>
-      <c r="O9" s="1">
-        <v>2278.8414</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83692.9292</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0286</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.2341</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5713.8307</v>
       </c>
       <c r="F10" s="1">
         <v>770.6228</v>
       </c>
       <c r="G10" s="1">
-        <v>6484.4535</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>80908.9852</v>
       </c>
       <c r="I10" s="1">
-        <v>88690.2807</v>
+        <v>2278.8414</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6774</v>
+        <v>83187.8266</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78690.2807</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7719</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10969.1221</v>
       </c>
-      <c r="O10" s="1">
-        <v>1309.7193</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93130.87760000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.006</v>
+        <v>-0.0065</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.7456</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6484.4535</v>
       </c>
       <c r="F11" s="1">
         <v>822.7883</v>
       </c>
       <c r="G11" s="1">
-        <v>7307.2418</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>99921.41680000001</v>
+        <v>88670.36229999999</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>1309.7193</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6851</v>
+        <v>89980.0816</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8794</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-11309.7193</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99921.41680000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0311</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.5325</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7307.2418</v>
       </c>
       <c r="F12" s="1">
         <v>494.5763</v>
       </c>
       <c r="G12" s="1">
-        <v>7801.8182</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>105641.5257</v>
       </c>
       <c r="I12" s="1">
-        <v>107187.4307</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7388</v>
+        <v>105641.5257</v>
       </c>
       <c r="K12" s="1">
+        <v>97187.4307</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13.3002</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.75</v>
       </c>
-      <c r="L12" s="1">
-        <v>4932.3882</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-2255.0425</v>
+        <v>4377.0061</v>
       </c>
       <c r="O12" s="1">
-        <v>7744.9575</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120536.6229</v>
+        <v>-2810.4246</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09660000000000001</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.0538</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>7801.8182</v>
       </c>
       <c r="F13" s="1">
         <v>1021.3351</v>
       </c>
       <c r="G13" s="1">
-        <v>8823.1533</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>109076.4396</v>
       </c>
       <c r="I13" s="1">
-        <v>121541.0702</v>
+        <v>7189.5754</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7752</v>
+        <v>116266.015</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111541.0702</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.2968</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-14353.6395</v>
       </c>
-      <c r="O13" s="1">
-        <v>3391.318</v>
-      </c>
-      <c r="P13" s="1">
-        <v>126746.9418</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.029</v>
+        <v>0.0054</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>13.1873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8823.1533</v>
       </c>
       <c r="F14" s="1">
         <v>-8823.1533</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>115750.0656</v>
       </c>
       <c r="I14" s="1">
-        <v>121541.0702</v>
+        <v>2835.9359</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7752</v>
+        <v>118586.0015</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111541.0702</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6419</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>115750.0656</v>
       </c>
-      <c r="O14" s="1">
-        <v>119141.3836</v>
-      </c>
-      <c r="P14" s="1">
-        <v>119141.3836</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.1287</v>
+        <v>-0.0608</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.3141</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>751.0834</v>
       </c>
       <c r="G2" s="1">
-        <v>751.0834</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3141</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>13.7208</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>751.0834</v>
       </c>
       <c r="F3" s="1">
         <v>721.4872</v>
       </c>
       <c r="G3" s="1">
-        <v>1472.5706</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10251.9885</v>
       </c>
       <c r="I3" s="1">
-        <v>19899.3814</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.5134</v>
+        <v>10251.9885</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9899.3814</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.1801</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9899.3814</v>
       </c>
-      <c r="O3" s="1">
-        <v>100.6186</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20200.6186</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0127</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>14.2021</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1472.5706</v>
       </c>
       <c r="F4" s="1">
         <v>672.1167</v>
       </c>
       <c r="G4" s="1">
-        <v>2144.6873</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20805.0668</v>
       </c>
       <c r="I4" s="1">
-        <v>29444.8496</v>
+        <v>100.6186</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7292</v>
+        <v>20905.6854</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19444.8496</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.2047</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9545.468199999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>555.1504</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30856.1504</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0217</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.9876</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2144.6873</v>
       </c>
       <c r="F5" s="1">
         <v>754.6077</v>
       </c>
       <c r="G5" s="1">
-        <v>2899.295</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40343.9796</v>
+        <v>29843.5382</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>555.1504</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7965</v>
+        <v>30398.6886</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9881</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10555.1504</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40343.9796</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0125</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>12.8818</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2899.295</v>
       </c>
       <c r="F6" s="1">
         <v>776.289</v>
       </c>
       <c r="G6" s="1">
-        <v>3675.584</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>47102.6091</v>
+        <v>37154.4652</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6033</v>
+        <v>37154.4652</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7965</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47102.6091</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0644</v>
+        <v>-0.0803</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>12.8509</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3675.584</v>
       </c>
       <c r="F7" s="1">
         <v>778.1556</v>
       </c>
       <c r="G7" s="1">
-        <v>4453.7396</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>56937.4981</v>
+        <v>46989.4011</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4718</v>
+        <v>46989.4011</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6033</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56937.4981</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0029</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.8614</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4453.7396</v>
       </c>
       <c r="F8" s="1">
         <v>721.4279</v>
       </c>
       <c r="G8" s="1">
-        <v>5175.1675</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>71362.9719</v>
+        <v>61414.8425</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.5261</v>
+        <v>61414.8425</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.4718</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71362.9719</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.3229</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5175.1675</v>
       </c>
       <c r="F9" s="1">
         <v>639.9095</v>
       </c>
       <c r="G9" s="1">
-        <v>5815.077</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>73738.8913</v>
       </c>
       <c r="I9" s="1">
-        <v>79165.3597</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.6138</v>
+        <v>73738.8913</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69165.3597</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.3649</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9165.359700000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>834.6403</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83691.34600000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0286</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.2341</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5815.077</v>
       </c>
       <c r="F10" s="1">
         <v>761.1749</v>
       </c>
       <c r="G10" s="1">
-        <v>6576.2519</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93121.0423</v>
+        <v>82342.6528</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>834.6403</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6856</v>
+        <v>83177.2932</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7573</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10834.6403</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93121.0423</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0061</v>
+        <v>-0.0067</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.7456</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6576.2519</v>
       </c>
       <c r="F11" s="1">
         <v>727.5055</v>
       </c>
       <c r="G11" s="1">
-        <v>7303.7574</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>99873.77039999999</v>
+        <v>89925.6415</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6916</v>
+        <v>89925.6415</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6856</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99873.77039999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.5325</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7303.7574</v>
       </c>
       <c r="F12" s="1">
         <v>688.1129</v>
       </c>
       <c r="G12" s="1">
-        <v>7991.8703</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115539.268</v>
+        <v>105591.1517</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.764</v>
+        <v>105591.1517</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13.6916</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.75</v>
       </c>
-      <c r="L12" s="1">
-        <v>4930.0363</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5069.9637</v>
+        <v>4438.97</v>
       </c>
       <c r="O12" s="1">
-        <v>4930.0363</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120469.3043</v>
+        <v>-5561.03</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0964</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.0538</v>
       </c>
       <c r="E13" s="1">
+        <v>7991.8703</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1027.4068</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>1062.3487</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9054.218999999999</v>
-      </c>
       <c r="H13" s="1">
-        <v>126586.1304</v>
+        <v>111733.5394</v>
       </c>
       <c r="I13" s="1">
-        <v>124930.0363</v>
+        <v>4438.97</v>
       </c>
       <c r="J13" s="1">
-        <v>13.798</v>
+        <v>116172.5094</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114438.97</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.3194</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-14930.0363</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126586.1304</v>
+        <v>-14438.97</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0298</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>13.1873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9019.277099999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9054.218999999999</v>
+        <v>-9019.277099999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118322.9946</v>
       </c>
       <c r="I14" s="1">
-        <v>124930.0363</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.798</v>
+        <v>118322.9946</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114438.97</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6883</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118781.3937</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118781.3937</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118781.3937</v>
+        <v>118322.9946</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1304</v>
+        <v>-0.0622</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.3141</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>751.0834</v>
       </c>
       <c r="G2" s="1">
-        <v>751.0834</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.3141</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
         <v>0.6</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10000</v>
-      </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>13.7208</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>751.0834</v>
       </c>
       <c r="F3" s="1">
         <v>725.1503</v>
       </c>
       <c r="G3" s="1">
-        <v>1476.2337</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10251.9885</v>
       </c>
       <c r="I3" s="1">
-        <v>19949.6422</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.5139</v>
+        <v>10251.9885</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9949.6422</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.2471</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9949.6422</v>
       </c>
-      <c r="O3" s="1">
-        <v>50.3578</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20200.3578</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0126</v>
+        <v>0.0252</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>14.2021</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1476.2337</v>
       </c>
       <c r="F4" s="1">
         <v>679.1589</v>
       </c>
       <c r="G4" s="1">
-        <v>2155.3927</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20856.8207</v>
       </c>
       <c r="I4" s="1">
-        <v>29595.1255</v>
+        <v>50.3578</v>
       </c>
       <c r="J4" s="1">
-        <v>13.7307</v>
+        <v>20907.1785</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19595.1255</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.2737</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9645.4833</v>
       </c>
-      <c r="O4" s="1">
-        <v>404.8745</v>
-      </c>
-      <c r="P4" s="1">
-        <v>30857.1245</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0217</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.9876</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2155.3927</v>
       </c>
       <c r="F5" s="1">
         <v>743.8642</v>
       </c>
       <c r="G5" s="1">
-        <v>2899.2569</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40343.4491</v>
+        <v>29992.5047</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>404.8745</v>
       </c>
       <c r="J5" s="1">
-        <v>13.7966</v>
+        <v>30397.3792</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.9186</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10404.8745</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40343.4491</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0126</v>
+        <v>-0.0165</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>12.8818</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2899.2569</v>
       </c>
       <c r="F6" s="1">
         <v>776.289</v>
       </c>
       <c r="G6" s="1">
-        <v>3675.5459</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>47102.1205</v>
+        <v>37153.9766</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.6034</v>
+        <v>37153.9766</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7966</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>47102.1205</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0644</v>
+        <v>-0.0803</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>12.8509</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3675.5459</v>
       </c>
       <c r="F7" s="1">
         <v>778.1556</v>
       </c>
       <c r="G7" s="1">
-        <v>4453.7015</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>56937.0107</v>
+        <v>46988.9137</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.4719</v>
+        <v>46988.9137</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6034</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>56937.0107</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0029</v>
+        <v>-0.0035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.8614</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4453.7015</v>
       </c>
       <c r="F8" s="1">
         <v>721.4279</v>
       </c>
       <c r="G8" s="1">
-        <v>5175.1293</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71362.44620000001</v>
+        <v>61414.3168</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.5262</v>
+        <v>61414.3168</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.4719</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71362.44620000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.06610000000000001</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.3229</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5175.1293</v>
       </c>
       <c r="F9" s="1">
         <v>698.1826</v>
       </c>
       <c r="G9" s="1">
-        <v>5873.312</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83686.4731</v>
+        <v>73738.3481</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.6209</v>
+        <v>73738.3481</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.5262</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>83686.4731</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0286</v>
+        <v>0.0325</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.2341</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5873.312</v>
       </c>
       <c r="F10" s="1">
         <v>702.5383</v>
       </c>
       <c r="G10" s="1">
-        <v>6575.8503</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93115.3547</v>
+        <v>83167.2723</v>
       </c>
       <c r="I10" s="1">
-        <v>90000</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6864</v>
+        <v>83167.2723</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.6209</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93115.3547</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0061</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.7456</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6575.8503</v>
       </c>
       <c r="F11" s="1">
         <v>727.5055</v>
       </c>
       <c r="G11" s="1">
-        <v>7303.3558</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>99868.2779</v>
+        <v>89920.1491</v>
       </c>
       <c r="I11" s="1">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6923</v>
+        <v>89920.1491</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6864</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>99868.2779</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0315</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.5325</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7303.3558</v>
       </c>
       <c r="F12" s="1">
         <v>688.1129</v>
       </c>
       <c r="G12" s="1">
-        <v>7991.4686</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>115533.4611</v>
+        <v>105585.3448</v>
       </c>
       <c r="I12" s="1">
-        <v>110000</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.7647</v>
+        <v>105585.3448</v>
       </c>
       <c r="K12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>13.6923</v>
+      </c>
+      <c r="M12" s="1">
         <v>0.75</v>
       </c>
-      <c r="L12" s="1">
-        <v>4929.7652</v>
-      </c>
-      <c r="M12" s="1">
-        <v>10000</v>
-      </c>
       <c r="N12" s="1">
-        <v>-5070.2348</v>
+        <v>4438.6989</v>
       </c>
       <c r="O12" s="1">
-        <v>4929.7652</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>120463.2263</v>
+        <v>-5561.3011</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0964</v>
+        <v>0.0567</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.0538</v>
       </c>
       <c r="E13" s="1">
+        <v>7991.4686</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1027.3875</v>
+      </c>
+      <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
-      <c r="F13" s="1">
-        <v>1062.3294</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9053.798000000001</v>
-      </c>
       <c r="H13" s="1">
-        <v>126580.2451</v>
+        <v>111727.9238</v>
       </c>
       <c r="I13" s="1">
-        <v>124929.7652</v>
+        <v>4438.6989</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7986</v>
+        <v>116166.6227</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114438.6989</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>14.3201</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-14929.7652</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>126580.2451</v>
+        <v>-14438.6989</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0298</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>13.1873</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>9018.8562</v>
       </c>
       <c r="F14" s="1">
-        <v>-9053.798000000001</v>
+        <v>-9018.8562</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118317.4721</v>
       </c>
       <c r="I14" s="1">
-        <v>124929.7652</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7986</v>
+        <v>118317.4721</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114438.6989</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6888</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118775.8712</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118775.8712</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118775.8712</v>
+        <v>118317.4721</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.1304</v>
+        <v>-0.0622</v>
       </c>
     </row>
   </sheetData>
@@ -4477,10 +4450,10 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>13.1517</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.7991</v>
+        <v>12.6893</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7489</v>
+        <v>12.5838</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7752</v>
+        <v>12.6419</v>
       </c>
       <c r="F3" s="1">
-        <v>13.798</v>
+        <v>12.6883</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7986</v>
+        <v>12.6888</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0031</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0522</v>
+        <v>0.0252</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0456</v>
+        <v>0.0305</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.049</v>
+        <v>0.0277</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.052</v>
+        <v>0.0254</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0521</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1591</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1952</v>
+        <v>0.1544</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1927</v>
+        <v>0.1522</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1941</v>
+        <v>0.1535</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1952</v>
+        <v>0.1543</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1952</v>
+        <v>0.1543</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.1081</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.3713</v>
+        <v>0.0314</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.3421</v>
+        <v>0.0665</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.3571</v>
+        <v>0.0479</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.3704</v>
+        <v>0.0327</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.3707</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.019</v>
+        <v>-0.2259</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0075</v>
+        <v>-0.0177</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0135</v>
+        <v>-0.0221</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0188</v>
+        <v>-0.0259</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0189</v>
+        <v>-0.0259</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4929.554</v>
+        <v>4438.4878</v>
       </c>
       <c r="D8" s="1">
-        <v>4936.2673</v>
+        <v>4290.1936</v>
       </c>
       <c r="E8" s="1">
-        <v>4932.3882</v>
+        <v>4377.0061</v>
       </c>
       <c r="F8" s="1">
-        <v>4930.0363</v>
+        <v>4438.97</v>
       </c>
       <c r="G8" s="1">
-        <v>4929.7652</v>
+        <v>4438.6989</v>
       </c>
     </row>
   </sheetData>
